--- a/template.xlsx
+++ b/template.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamaasrory/Projects/npm-dev/read-and-write-excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB7A6109-082F-FD4F-A759-396C52EA734F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69962FBE-D1D2-604B-AD5D-75920977848D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{7D0476E4-2F02-EF4D-9BBB-255842DE9815}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{7D0476E4-2F02-EF4D-9BBB-255842DE9815}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,38 +34,9 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>actual</t>
-  </si>
-  <si>
-    <t>budget</t>
-  </si>
-  <si>
-    <t>variance</t>
-  </si>
-  <si>
-    <t>normalize</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CPO Refinery 1 Production &amp; Cost Summary </t>
-  </si>
-  <si>
-    <t>Plant :</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -73,41 +44,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -115,48 +61,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="1" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -468,67 +380,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC6AA590-8BE4-6D44-96C0-A99E62F9840D}">
-  <dimension ref="B2:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{741262CB-5B0A-5247-A40D-C03D4063207A}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" customWidth="1"/>
-    <col min="3" max="3" width="30" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>44562</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:G4"/>
-  </mergeCells>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>